--- a/ERS Testing Documentation.xlsx
+++ b/ERS Testing Documentation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41fb85a9a0361d73/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41fb85a9a0361d73/Desktop/ERS Testing Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="496" documentId="7_{2EB047B2-1CB8-8749-8564-EAA5D79892DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6217551F-2D71-4D40-A6AC-983A7CA8BA5E}"/>
+  <xr:revisionPtr revIDLastSave="516" documentId="7_{2EB047B2-1CB8-8749-8564-EAA5D79892DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F46C38A3-5CAC-4AA8-AA2C-121C7F7A9165}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accpetance Criteria" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="134">
   <si>
     <t>LOGIN</t>
   </si>
@@ -52,10 +52,6 @@
   <si>
     <t xml:space="preserve">1. Open front end
 2. Pay attention to page layout </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login page is opened
-Page looks as expected </t>
   </si>
   <si>
     <t>ERSL-2</t>
@@ -110,9 +106,6 @@
     <t xml:space="preserve">Check login page display </t>
   </si>
   <si>
-    <t xml:space="preserve">Error message about login with vaild  credentials </t>
-  </si>
-  <si>
     <t xml:space="preserve">Error message about login with vaild credentials </t>
   </si>
   <si>
@@ -227,14 +220,7 @@
     <t>Test Data</t>
   </si>
   <si>
-    <t>Put URI in the web broswer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test Case description </t>
-  </si>
-  <si>
-    <t>Username = abc1234 
-Password  = Passw@rd</t>
   </si>
   <si>
     <t>Username = &lt;blank&gt; 
@@ -510,6 +496,30 @@
   </si>
   <si>
     <t>The request is denied and is moved out of the pending queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Put login page URI in web browser = </t>
+  </si>
+  <si>
+    <t>Put URI in the web broswer=http://127.0.0.1:5501/</t>
+  </si>
+  <si>
+    <t>Login page is opened</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Username = shaquera7
+Password  = password</t>
+  </si>
+  <si>
+    <t>"Username and Password does not match.
+ Please try again with correct credentials !!!"</t>
+  </si>
+  <si>
+    <t>Display error message as:
+"Username and Password does not match. Please try again with correct credentials !!!"</t>
   </si>
 </sst>
 </file>
@@ -525,12 +535,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -545,16 +561,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -568,6 +581,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,75 +916,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="5" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="6" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="7" spans="1:2" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="9" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -987,69 +1007,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="A1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1064,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A785BB-A14E-4D41-838B-24B4BC718318}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1073,40 +1093,40 @@
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="28.5546875" customWidth="1"/>
     <col min="3" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="40.109375" customWidth="1"/>
+    <col min="5" max="5" width="43.88671875" customWidth="1"/>
     <col min="6" max="6" width="33.6640625" customWidth="1"/>
     <col min="7" max="7" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>2</v>
@@ -1116,88 +1136,104 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>19</v>
+      <c r="B3" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
+        <v>56</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1214,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFB9951-19D4-4B96-B2E4-D41F363B21EA}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1229,35 +1265,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="A1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>2</v>
@@ -1265,155 +1301,155 @@
     </row>
     <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C11" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D11" s="9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="E11" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="B11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +1464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C458FD20-DBAF-42C4-9DB4-71E59F978B4F}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1444,37 +1480,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="A1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>2</v>
@@ -1482,87 +1518,87 @@
     </row>
     <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" t="s">
         <v>117</v>
-      </c>
-      <c r="B5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
         <v>122</v>
       </c>
-      <c r="B6" t="s">
-        <v>126</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/ERS Testing Documentation.xlsx
+++ b/ERS Testing Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41fb85a9a0361d73/Desktop/ERS Testing Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="516" documentId="7_{2EB047B2-1CB8-8749-8564-EAA5D79892DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F46C38A3-5CAC-4AA8-AA2C-121C7F7A9165}"/>
+  <xr:revisionPtr revIDLastSave="524" documentId="7_{2EB047B2-1CB8-8749-8564-EAA5D79892DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90F514E0-6ED2-4114-866C-FB2E00187CD0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="135">
   <si>
     <t>LOGIN</t>
   </si>
@@ -106,9 +106,6 @@
     <t xml:space="preserve">Check login page display </t>
   </si>
   <si>
-    <t xml:space="preserve">Error message about login with vaild credentials </t>
-  </si>
-  <si>
     <t xml:space="preserve">User Story </t>
   </si>
   <si>
@@ -225,14 +222,6 @@
   <si>
     <t>Username = &lt;blank&gt; 
 Password  = &lt;blank&gt;</t>
-  </si>
-  <si>
-    <t>Username = &lt;incorrect&gt; 
-Password  = Passw@rd</t>
-  </si>
-  <si>
-    <t>Username = abc1234
-Password = &lt;incorrect&gt;</t>
   </si>
   <si>
     <t>Empolyee Reimbursement</t>
@@ -520,6 +509,22 @@
   <si>
     <t>Display error message as:
 "Username and Password does not match. Please try again with correct credentials !!!"</t>
+  </si>
+  <si>
+    <t>Username = bipul51
+Password  = password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display error message as:
+"Username and Password does not match. Please try again with correct credentials !!!" </t>
+  </si>
+  <si>
+    <t>Username and Password does not match._x000D_
+ Please try again with correct credentials !!!</t>
+  </si>
+  <si>
+    <t>Username = abc1234
+Password = testing123</t>
   </si>
 </sst>
 </file>
@@ -917,74 +922,74 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1008,7 +1013,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1018,58 +1023,58 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
         <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
         <v>49</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
         <v>51</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1085,7 +1090,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1114,19 +1119,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>2</v>
@@ -1143,16 +1148,16 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1166,7 +1171,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -1175,7 +1180,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1189,16 +1194,16 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1212,12 +1217,17 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1230,10 +1240,16 @@
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
+        <v>134</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1266,7 +1282,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1278,22 +1294,22 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>2</v>
@@ -1301,155 +1317,155 @@
     </row>
     <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" t="s">
-        <v>71</v>
-      </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" t="s">
         <v>75</v>
-      </c>
-      <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" t="s">
         <v>87</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
         <v>81</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
         <v>91</v>
       </c>
-      <c r="B9" t="s">
-        <v>94</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
         <v>95</v>
       </c>
-      <c r="B10" t="s">
-        <v>98</v>
-      </c>
       <c r="C10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" t="s">
         <v>97</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1481,7 +1497,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1495,22 +1511,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>2</v>
@@ -1518,87 +1534,87 @@
     </row>
     <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" t="s">
         <v>113</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>114</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" t="s">
         <v>118</v>
-      </c>
-      <c r="B6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" t="s">
         <v>123</v>
-      </c>
-      <c r="B7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/ERS Testing Documentation.xlsx
+++ b/ERS Testing Documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41fb85a9a0361d73/Desktop/ERS Testing Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="524" documentId="7_{2EB047B2-1CB8-8749-8564-EAA5D79892DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90F514E0-6ED2-4114-866C-FB2E00187CD0}"/>
+  <xr:revisionPtr revIDLastSave="569" documentId="7_{2EB047B2-1CB8-8749-8564-EAA5D79892DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0EEC2DA-A14A-4A81-8505-8CF1F28A0A05}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accpetance Criteria" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="139">
   <si>
     <t>LOGIN</t>
   </si>
@@ -280,19 +280,7 @@
     <t>ERSP-4</t>
   </si>
   <si>
-    <t>1. Open site
-2. Navigate to the "Create Reimbursement" button
-3. Click "Create Reimbursement" button</t>
-  </si>
-  <si>
-    <t>Click the "Create Reimbursement" button</t>
-  </si>
-  <si>
     <t>Empolyee reimbuserment request form loads</t>
-  </si>
-  <si>
-    <t>Empolyee Reimbursement Page opens
-Page looks as expected</t>
   </si>
   <si>
     <t>ERSP-5</t>
@@ -320,33 +308,6 @@
     <t>ERSP-6</t>
   </si>
   <si>
-    <t>Check create reimbursement request</t>
-  </si>
-  <si>
-    <t>Check create reimbursement request form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open site
-2. Navigate to the "Create Reimbursement" button
-3. Click "Create Reimbursement" button
-4. Input valid amount
-5. Chose valid type from dropdown list
-6. Input valid description
-7. Upload valid picture
-8. Click create
-</t>
-  </si>
-  <si>
-    <t>Click the "Create Reimbursement" button
-Reimbursement Amount = 100
-Type = lodging
-Description = Stayed at a hotel for a JavaScript conference
-Receipt Image = receipt.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A new request is created </t>
-  </si>
-  <si>
     <t>ERSP-7</t>
   </si>
   <si>
@@ -487,9 +448,6 @@
     <t>The request is denied and is moved out of the pending queue</t>
   </si>
   <si>
-    <t xml:space="preserve">Put login page URI in web browser = </t>
-  </si>
-  <si>
     <t>Put URI in the web broswer=http://127.0.0.1:5501/</t>
   </si>
   <si>
@@ -525,6 +483,63 @@
   <si>
     <t>Username = abc1234
 Password = testing123</t>
+  </si>
+  <si>
+    <t>Put login page URI in web browser = http://127.0.0.1:5501/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empolyee Reimbursement Page opens
+Page has: Home, Check Reimbursement, Create Reimbursement, and Logout tab along with Employee's name, role, and username
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empolyee Reimbursement Page opens
+Page has: Home, Check Reimbursement, Create Reimbursement, and Logout tab along with Employee's name, role, and username </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Navigate to the "Check Reimbursements" tab
+2.  Click "Check Reimbursements" tab</t>
+  </si>
+  <si>
+    <t>Click the "Check Reimbursement" tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Navigate to the "Create Reimbursement" tab
+2. Click "Create Reimbursement" tab</t>
+  </si>
+  <si>
+    <t>Click the "Create Reimbursement" tab</t>
+  </si>
+  <si>
+    <t>Check "Create reimbursement" request tab</t>
+  </si>
+  <si>
+    <t>Create reimbursement request form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Navigate to the "Create Reimbursement" tab
+2. Click "Create Reimbursement" tab
+3. Chose valid "Type of Expense" from dropdown list
+4. Input valid "Reimbursement Amount"
+5. Input valid "Description"
+6. Click "Submit"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the "Create Reimbursement" tab
+Type of Expense = lodging
+Reimbursement Amount = 100
+Description = Stayed at a hotel for a JavaScript conference
+</t>
+  </si>
+  <si>
+    <t>Display message: "Reimbursement request successfully submitted !!!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass </t>
   </si>
 </sst>
 </file>
@@ -1089,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A785BB-A14E-4D41-838B-24B4BC718318}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1148,16 +1163,16 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1171,7 +1186,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -1180,7 +1195,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1197,13 +1212,13 @@
         <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1217,16 +1232,16 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
@@ -1240,16 +1255,16 @@
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1266,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFB9951-19D4-4B96-B2E4-D41F363B21EA}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1276,8 +1291,9 @@
     <col min="2" max="2" width="36.88671875" customWidth="1"/>
     <col min="3" max="3" width="52.5546875" customWidth="1"/>
     <col min="4" max="4" width="49.5546875" customWidth="1"/>
-    <col min="5" max="5" width="45.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="56.77734375" customWidth="1"/>
+    <col min="6" max="6" width="57.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1315,7 +1331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1326,10 +1342,16 @@
         <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>127</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1340,29 +1362,35 @@
         <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C5" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1371,101 +1399,113 @@
         <v>72</v>
       </c>
       <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="D10" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="E10" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="E9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1480,7 +1520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C458FD20-DBAF-42C4-9DB4-71E59F978B4F}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1497,7 +1537,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1534,10 +1574,10 @@
     </row>
     <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>63</v>
@@ -1546,12 +1586,12 @@
         <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -1563,58 +1603,58 @@
         <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/ERS Testing Documentation.xlsx
+++ b/ERS Testing Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41fb85a9a0361d73/Desktop/ERS Testing Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="569" documentId="7_{2EB047B2-1CB8-8749-8564-EAA5D79892DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0EEC2DA-A14A-4A81-8505-8CF1F28A0A05}"/>
+  <xr:revisionPtr revIDLastSave="621" documentId="7_{2EB047B2-1CB8-8749-8564-EAA5D79892DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96137C47-2E87-4F90-A03B-BFD29B3C9A1F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="139">
   <si>
     <t>LOGIN</t>
   </si>
@@ -251,24 +251,10 @@
 4. Pay attention to page layout</t>
   </si>
   <si>
-    <t>Put login page URI in web browser</t>
-  </si>
-  <si>
     <t>ERSP-2</t>
   </si>
   <si>
     <t>Check reimbursement requests</t>
-  </si>
-  <si>
-    <t>1. Open site 
-2. Navigate to the "Check Reimbursements" button
-3. Click "Check Reimbursements" button</t>
-  </si>
-  <si>
-    <t>Click the "Check Reimbursement" button</t>
-  </si>
-  <si>
-    <t>ERSP-3</t>
   </si>
   <si>
     <t>Check another user's requests</t>
@@ -390,17 +376,10 @@
     <t>All empolyee reimbursement data table loads</t>
   </si>
   <si>
-    <t>Finance Manager Page opens
-Page looks as expected</t>
-  </si>
-  <si>
     <t>Empolyee reimbursement data table loads</t>
   </si>
   <si>
     <t>ERSF-3</t>
-  </si>
-  <si>
-    <t>Check reimbursement by user</t>
   </si>
   <si>
     <t>1. Open site 
@@ -411,38 +390,13 @@
     <t>Put another username in URI in web browser</t>
   </si>
   <si>
-    <t>Error about unable to access the Empolyee Reimbursement Page</t>
-  </si>
-  <si>
     <t>ERSF-4</t>
   </si>
   <si>
-    <t>1. Open site 
-2. Navigate to "Check Reimbursements" button
-3. Click "Check Reimbursements" button
-4. Click approve button</t>
-  </si>
-  <si>
-    <t>Click the "Check Reimbursement" button
-Click approve button</t>
-  </si>
-  <si>
     <t>The request is approved and is moved out of the pending queue</t>
   </si>
   <si>
-    <t>Check approve button</t>
-  </si>
-  <si>
     <t>ERSF-5</t>
-  </si>
-  <si>
-    <t>Check deny button</t>
-  </si>
-  <si>
-    <t>1. Open site 
-2. Navigate to "Check Reimbursements" button
-3. Click "Check Reimbursements" button
-4. Click deny button</t>
   </si>
   <si>
     <t>The request is denied and is moved out of the pending queue</t>
@@ -540,6 +494,58 @@
   </si>
   <si>
     <t xml:space="preserve">Pass </t>
+  </si>
+  <si>
+    <t>Finance Manager page opens
+Page has: Home, Check Reimbursement, and Logout tab along with Finance Manager's name, role, and username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Navigate to the "Check Reimbursements" tab
+2. Click "Check Reimbursements" tab</t>
+  </si>
+  <si>
+    <t>Check reimbursement by status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Navigate to the status tab in the table heading
+2. Select "apporved" from dropdown list
+</t>
+  </si>
+  <si>
+    <t>Show all reimbursement data that are approved</t>
+  </si>
+  <si>
+    <t>ERSP-10</t>
+  </si>
+  <si>
+    <t>Check "approve" button</t>
+  </si>
+  <si>
+    <t>Check "deny" button</t>
+  </si>
+  <si>
+    <t>Click the "Check Reimbursement" tab
+Click approve button</t>
+  </si>
+  <si>
+    <t>Click the "Check Reimbursement" tab
+Click deny button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Navigate to "Check Reimbursements" tab
+2. Click "Check Reimbursements" tab
+3. Select "pending" from the status column 
+4. Click approve button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Navigate to "Check Reimbursements" tab
+2. Click "Check Reimbursements" tab
+3. Select "pending" from the status column
+4. Click deny button</t>
   </si>
 </sst>
 </file>
@@ -1163,16 +1169,16 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1186,7 +1192,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -1195,7 +1201,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1212,13 +1218,13 @@
         <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1232,16 +1238,16 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
@@ -1255,16 +1261,16 @@
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1279,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFB9951-19D4-4B96-B2E4-D41F363B21EA}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1331,7 +1337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1342,170 +1348,190 @@
         <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
         <v>65</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="C6" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" t="s">
-        <v>137</v>
-      </c>
       <c r="F7" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>78</v>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1520,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C458FD20-DBAF-42C4-9DB4-71E59F978B4F}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1529,15 +1555,15 @@
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
     <col min="2" max="2" width="26.109375" customWidth="1"/>
     <col min="3" max="3" width="43.21875" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
-    <col min="5" max="5" width="53.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="4" max="4" width="50.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.33203125" customWidth="1"/>
     <col min="7" max="7" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1574,87 +1600,114 @@
     </row>
     <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>100</v>
+        <v>127</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="F4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>102</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/ERS Testing Documentation.xlsx
+++ b/ERS Testing Documentation.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="621" documentId="7_{2EB047B2-1CB8-8749-8564-EAA5D79892DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96137C47-2E87-4F90-A03B-BFD29B3C9A1F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2124" yWindow="2448" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accpetance Criteria" sheetId="2" r:id="rId1"/>
@@ -1110,7 +1110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A785BB-A14E-4D41-838B-24B4BC718318}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1287,7 +1287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFB9951-19D4-4B96-B2E4-D41F363B21EA}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1546,7 +1546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C458FD20-DBAF-42C4-9DB4-71E59F978B4F}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/ERS Testing Documentation.xlsx
+++ b/ERS Testing Documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41fb85a9a0361d73/Desktop/ERS Testing Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="621" documentId="7_{2EB047B2-1CB8-8749-8564-EAA5D79892DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96137C47-2E87-4F90-A03B-BFD29B3C9A1F}"/>
+  <xr:revisionPtr revIDLastSave="622" documentId="7_{2EB047B2-1CB8-8749-8564-EAA5D79892DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69017133-4A8A-4DCA-9FC0-4D0A36F3E951}"/>
   <bookViews>
-    <workbookView xWindow="2124" yWindow="2448" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accpetance Criteria" sheetId="2" r:id="rId1"/>
@@ -929,6 +929,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5593F422-5F63-5447-BEEA-526AAF00421E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/ERS Testing Documentation.xlsx
+++ b/ERS Testing Documentation.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41fb85a9a0361d73/Desktop/ERS Testing Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="622" documentId="7_{2EB047B2-1CB8-8749-8564-EAA5D79892DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69017133-4A8A-4DCA-9FC0-4D0A36F3E951}"/>
+  <xr:revisionPtr revIDLastSave="677" documentId="7_{2EB047B2-1CB8-8749-8564-EAA5D79892DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1F2DCFC-22DC-44D7-A2D6-515E0D5C58A6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accpetance Criteria" sheetId="2" r:id="rId1"/>
     <sheet name="ERSL-Test Secneario" sheetId="3" r:id="rId2"/>
-    <sheet name="ERSL-Test Cases" sheetId="1" r:id="rId3"/>
-    <sheet name="ERSP-Test Cases" sheetId="4" r:id="rId4"/>
-    <sheet name="ERSF-Test Cases" sheetId="5" r:id="rId5"/>
+    <sheet name="ERSP-Test Secneario" sheetId="6" r:id="rId3"/>
+    <sheet name="ERSF-Test Secneario" sheetId="7" r:id="rId4"/>
+    <sheet name="ERSL-Test Cases" sheetId="1" r:id="rId5"/>
+    <sheet name="ERSP-Test Cases" sheetId="4" r:id="rId6"/>
+    <sheet name="ERSF-Test Cases" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="116">
   <si>
     <t>LOGIN</t>
   </si>
@@ -172,40 +174,22 @@
     <t>Test Scenario ID</t>
   </si>
   <si>
-    <t>T-1</t>
-  </si>
-  <si>
     <t>Test Scenario</t>
   </si>
   <si>
-    <t>T-2</t>
-  </si>
-  <si>
     <t>Page doesn't load</t>
   </si>
   <si>
     <t>Page loads</t>
   </si>
   <si>
-    <t>T-3</t>
-  </si>
-  <si>
-    <t>T-4</t>
-  </si>
-  <si>
     <t>Username is not blank</t>
   </si>
   <si>
     <t xml:space="preserve">Username is blank </t>
   </si>
   <si>
-    <t>T-5</t>
-  </si>
-  <si>
     <t>Password is blank</t>
-  </si>
-  <si>
-    <t>T-6</t>
   </si>
   <si>
     <t>Password is not blank</t>
@@ -257,12 +241,6 @@
     <t>Check reimbursement requests</t>
   </si>
   <si>
-    <t>Check another user's requests</t>
-  </si>
-  <si>
-    <t>Error about cannot access another empolyee's requests</t>
-  </si>
-  <si>
     <t>ERSP-4</t>
   </si>
   <si>
@@ -272,95 +250,6 @@
     <t>ERSP-5</t>
   </si>
   <si>
-    <t>Check create request form with empty fields</t>
-  </si>
-  <si>
-    <t>1. Open site
-2. Navigate to the "Create Reimbursement" button
-3. Click "Create Reimbursement" button
-4. Click create button with empty fields</t>
-  </si>
-  <si>
-    <t>Click the "Create Reimbursement" button
-Reimbursement Amount = &lt;blank&gt;
-Type = &lt;blank&gt;
-Description = &lt;blank&gt;
-Receipt Image = &lt;blank&gt;</t>
-  </si>
-  <si>
-    <t>Error about form cannot be blank</t>
-  </si>
-  <si>
-    <t>ERSP-6</t>
-  </si>
-  <si>
-    <t>ERSP-7</t>
-  </si>
-  <si>
-    <t>Click the "Create Reimbursement" button
-Reimbursement Amount = abc
-Type = lodging
-Description = Stayed at a hotel for a JavaScript conference
-Receipt Image = receipt.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error about invalid credientals </t>
-  </si>
-  <si>
-    <t>Check amount with invalid characters</t>
-  </si>
-  <si>
-    <t>ERSP-8</t>
-  </si>
-  <si>
-    <t>1. Open site
-2. Navigate to the "Create Reimbursement" button
-3. Click "Create Reimbursement" button
-4. Click create button with alphabetical characters for amount</t>
-  </si>
-  <si>
-    <t>1. Open site
-2. Navigate to the "Create Reimbursement" button
-3. Click "Create Reimbursement" button
-4. Click create button with type blank</t>
-  </si>
-  <si>
-    <t>Check type blank</t>
-  </si>
-  <si>
-    <t>Click the "Create Reimbursement" button
-Reimbursement Amount = abc
-Type = &lt;blank&gt;
-Description = Stayed at a hotel for a JavaScript conference
-Receipt Image = receipt.jpg</t>
-  </si>
-  <si>
-    <t>Error about all fields must be filled out</t>
-  </si>
-  <si>
-    <t>ERSP-9</t>
-  </si>
-  <si>
-    <t>Check receipt image with invaild format</t>
-  </si>
-  <si>
-    <t>1. Open site
-2. Navigate to the "Create Reimbursement" button
-3. Click "Create Reimbursement" button
-4. Upload a gif 
-5. Click create button</t>
-  </si>
-  <si>
-    <t>Click the "Create Reimbursement" button
-Reimbursement Amount = abc
-Type = lodging
-Description = Stayed at a hotel for a JavaScript conference
-Receipt Image = receipt.gif</t>
-  </si>
-  <si>
-    <t>Error about picture must be a png, jpg, etc…</t>
-  </si>
-  <si>
     <t>Finance Manager</t>
   </si>
   <si>
@@ -380,14 +269,6 @@
   </si>
   <si>
     <t>ERSF-3</t>
-  </si>
-  <si>
-    <t>1. Open site 
-2. Put another username in URI
-3. Hit Enter</t>
-  </si>
-  <si>
-    <t>Put another username in URI in web browser</t>
   </si>
   <si>
     <t>ERSF-4</t>
@@ -517,9 +398,6 @@
     <t>Show all reimbursement data that are approved</t>
   </si>
   <si>
-    <t>ERSP-10</t>
-  </si>
-  <si>
     <t>Check "approve" button</t>
   </si>
   <si>
@@ -546,6 +424,30 @@
 2. Click "Check Reimbursements" tab
 3. Select "pending" from the status column
 4. Click deny button</t>
+  </si>
+  <si>
+    <t>Employee Reimbursement Page</t>
+  </si>
+  <si>
+    <t>Check reimbursement</t>
+  </si>
+  <si>
+    <t>Filter status</t>
+  </si>
+  <si>
+    <t>Create reimbursement</t>
+  </si>
+  <si>
+    <t>ERSP-3</t>
+  </si>
+  <si>
+    <t>Approve/Deny reimbursement</t>
+  </si>
+  <si>
+    <t>ERSL-5</t>
+  </si>
+  <si>
+    <t>Employee Reimbursement Accpetance Criteria</t>
   </si>
 </sst>
 </file>
@@ -561,18 +463,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -587,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -607,10 +503,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -932,10 +824,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -944,79 +836,90 @@
     <col min="2" max="2" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1026,7 +929,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1036,69 +939,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1110,10 +1013,176 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D152DB04-D5FF-4C87-A7D3-1656BAFD4D42}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFEB9B7-2DE7-4972-83AF-91126EA55FE7}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A785BB-A14E-4D41-838B-24B4BC718318}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1128,34 +1197,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>2</v>
@@ -1172,16 +1241,16 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1195,7 +1264,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -1204,7 +1273,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1218,16 +1287,16 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1241,16 +1310,16 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
@@ -1264,16 +1333,16 @@
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1286,12 +1355,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFB9951-19D4-4B96-B2E4-D41F363B21EA}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1306,35 +1375,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="A1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>2</v>
@@ -1342,199 +1411,114 @@
     </row>
     <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
+        <v>93</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1545,11 +1529,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C458FD20-DBAF-42C4-9DB4-71E59F978B4F}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1565,37 +1549,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="A1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>2</v>
@@ -1603,114 +1587,114 @@
     </row>
     <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
